--- a/data/trans_dic/P1413-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1970010787182649</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.114999840233087</v>
+        <v>0.1149998402330869</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.129712603541973</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08483896485439994</v>
+        <v>0.08341075586902794</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03550774273377472</v>
+        <v>0.03553646380499595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06650706201695376</v>
+        <v>0.06503728293362199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07493459319656813</v>
+        <v>0.07721619941315674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0982327983276772</v>
+        <v>0.1016466004803477</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1720419965110368</v>
+        <v>0.1644780859407502</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1507345814538701</v>
+        <v>0.1512768657368825</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09119045542391234</v>
+        <v>0.09155512095185639</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1009770867973442</v>
+        <v>0.1028806528290855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1114593791701982</v>
+        <v>0.1092517950457856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1191411250756837</v>
+        <v>0.1163350210872808</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09079926550375758</v>
+        <v>0.09042076456570067</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1632512468073446</v>
+        <v>0.1590639119450884</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09257829526765199</v>
+        <v>0.09211327187021495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1366260857557608</v>
+        <v>0.1414686637100857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1361411655455562</v>
+        <v>0.1429314415485481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1869949743027655</v>
+        <v>0.1897279761516693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2770311034706014</v>
+        <v>0.274719824505547</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2472640310389334</v>
+        <v>0.2437143068523119</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1455557628699181</v>
+        <v>0.1440133465545208</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1606595468795592</v>
+        <v>0.159070990393868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1741628939883788</v>
+        <v>0.1692685449070027</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1796936221559362</v>
+        <v>0.1794970991416342</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1302888926629965</v>
+        <v>0.1313411731306635</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1747898086755114</v>
+        <v>0.1794323792464232</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03852504606519163</v>
+        <v>0.03768398264281869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03066657807593467</v>
+        <v>0.02998483274898071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1197427807718857</v>
+        <v>0.1182504551952012</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2920525821057894</v>
+        <v>0.2898972316640601</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09629727983435898</v>
+        <v>0.09662526323327894</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04886989835146276</v>
+        <v>0.04953095903220674</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2631266383712164</v>
+        <v>0.262773338976478</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2485435155172338</v>
+        <v>0.2475378424384578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0730925795985056</v>
+        <v>0.07343217537841526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04438135834802284</v>
+        <v>0.04340478705908428</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1999415328040173</v>
+        <v>0.2019189591188263</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2522750021828555</v>
+        <v>0.2552317218291426</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08505962894249039</v>
+        <v>0.08314313000736143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06757309979755323</v>
+        <v>0.06619718642575402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1930903079638503</v>
+        <v>0.1921093246733667</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3721416074940756</v>
+        <v>0.3709063829550183</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1567868237643305</v>
+        <v>0.1565620355700905</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09289755094593782</v>
+        <v>0.09492967821128402</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3335461387461244</v>
+        <v>0.3271408071750055</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3058911088369075</v>
+        <v>0.304117469618747</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1118319128152402</v>
+        <v>0.1106960084612625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07471993668678217</v>
+        <v>0.07304318520252873</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2523946789982419</v>
+        <v>0.2520708241511063</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1481075184249325</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2853100284647919</v>
+        <v>0.285310028464792</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.113980628459111</v>
@@ -969,7 +969,7 @@
         <v>0.1127129399783573</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2426115953192882</v>
+        <v>0.2426115953192881</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05780113861474283</v>
+        <v>0.05768876159536384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05261414234985669</v>
+        <v>0.04653855945844081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0500023150871173</v>
+        <v>0.05175991763191639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1547078930164631</v>
+        <v>0.1587921150076275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1085851604997351</v>
+        <v>0.1072565400627849</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1122131492757433</v>
+        <v>0.1123264390983417</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1115570856493748</v>
+        <v>0.1116484539139547</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2503682524441154</v>
+        <v>0.2512529557452516</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08990077876728299</v>
+        <v>0.09082838519559724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09184062003558004</v>
+        <v>0.08849350379711203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09084585636886484</v>
+        <v>0.0901588517198597</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2126098808737391</v>
+        <v>0.2169709469145302</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1221812511871102</v>
+        <v>0.1162279060291902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1127163404617608</v>
+        <v>0.1061071667696236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1088031585362823</v>
+        <v>0.1088746963253197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2327087027030164</v>
+        <v>0.2363185168389132</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1842913028796672</v>
+        <v>0.1811329502452509</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1921826377707277</v>
+        <v>0.1974599358865117</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1939076150744315</v>
+        <v>0.1948307695009517</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3235658467766855</v>
+        <v>0.3276570101696898</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1390435074192423</v>
+        <v>0.1402444752233078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.141174336135992</v>
+        <v>0.1394247995847743</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.141254702763302</v>
+        <v>0.1382369370322949</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2690759950450534</v>
+        <v>0.2706245590400311</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1539975670179364</v>
+        <v>0.1535601993221957</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0688418453658526</v>
+        <v>0.06792597705186681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05328841274754999</v>
+        <v>0.056271604593282</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1010288152031805</v>
+        <v>0.1020780491731057</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1028913407553577</v>
+        <v>0.1020771662355737</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1703324683313116</v>
+        <v>0.1704589712023195</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1444422011801976</v>
+        <v>0.1443368872774832</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2587469943160283</v>
+        <v>0.2587900675664107</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1389454781250076</v>
+        <v>0.138685978264427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1317277708607001</v>
+        <v>0.1298331339804822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1097204508464172</v>
+        <v>0.1086956486440989</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1963934067185732</v>
+        <v>0.1947786804997392</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2384817376988534</v>
+        <v>0.2365663687913089</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1348810448491047</v>
+        <v>0.133222399772983</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1123160865131418</v>
+        <v>0.1124042172001086</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1796616944346891</v>
+        <v>0.1833694938002939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1720945346404337</v>
+        <v>0.17346651504057</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2565324283598074</v>
+        <v>0.2527750010325686</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2278430230575932</v>
+        <v>0.2318515277022191</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3383101131757403</v>
+        <v>0.3439941233100194</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1903366327570981</v>
+        <v>0.1927385762659123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1834380081756716</v>
+        <v>0.1822790459253578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1597761956581458</v>
+        <v>0.1594934791874536</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.252836132735329</v>
+        <v>0.251009661606364</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.09102587227089363</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1515694175298065</v>
+        <v>0.1515694175298066</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1397743951132829</v>
@@ -1229,7 +1229,7 @@
         <v>0.1412199935848292</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2237098637456409</v>
+        <v>0.2237098637456408</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09882322881888266</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02940456718814824</v>
+        <v>0.03085417669758008</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09734431768087584</v>
+        <v>0.1035691949809721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05682086657222953</v>
+        <v>0.06105979527722434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1109711627214393</v>
+        <v>0.1143685136529125</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09541689858904874</v>
+        <v>0.09570673214834971</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2587471230165434</v>
+        <v>0.2557041740346581</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1002984289158088</v>
+        <v>0.09730228898488061</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1874320231616735</v>
+        <v>0.18887873490101</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06899919056492816</v>
+        <v>0.07302261292474892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1970169727891196</v>
+        <v>0.1948043242904975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08817914068079849</v>
+        <v>0.08834011136781764</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1631988768686632</v>
+        <v>0.1627440347855035</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09539461314811178</v>
+        <v>0.09578509832116959</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2002433480242146</v>
+        <v>0.2078795038905177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1370335841902409</v>
+        <v>0.1413289540562687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1922084294029927</v>
+        <v>0.1959426694456328</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1933914462020235</v>
+        <v>0.1942434238199374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3809221086215638</v>
+        <v>0.3829869728445373</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1933088899384584</v>
+        <v>0.1928703010770901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.260070709701868</v>
+        <v>0.2609940293419972</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1309474126627635</v>
+        <v>0.1323698949676455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2790151900255394</v>
+        <v>0.2783354471614836</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1493656616301313</v>
+        <v>0.1512620282479737</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2187844730724961</v>
+        <v>0.2171223363393908</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.1038113167286484</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3080936830225667</v>
+        <v>0.3080936830225668</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09539531308628918</v>
+        <v>0.09450327829487665</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09496883277893595</v>
+        <v>0.09564526059200879</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06130545501536196</v>
+        <v>0.06091298446844289</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2093471198703589</v>
+        <v>0.2112128888143089</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1113840140865726</v>
+        <v>0.1112851724844655</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1344426892346272</v>
+        <v>0.1302678897463561</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07804025302343975</v>
+        <v>0.07813411692004595</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3179578028518749</v>
+        <v>0.3190137694279056</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1162518372008598</v>
+        <v>0.1152178892170316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1277453138579694</v>
+        <v>0.1252976479690057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07916594293658048</v>
+        <v>0.08004537677722057</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2743985307457322</v>
+        <v>0.2781283478219488</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1719562361904775</v>
+        <v>0.1742148285162426</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1826904489852165</v>
+        <v>0.1853276711814918</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1360115359306221</v>
+        <v>0.1316102666901404</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3017495072115182</v>
+        <v>0.3042485848251634</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1967557328465675</v>
+        <v>0.1941649732396953</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2249714631989933</v>
+        <v>0.2266087602792648</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1556499096377779</v>
+        <v>0.1632826819585204</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4105327778536574</v>
+        <v>0.4101579324060856</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1740299215946641</v>
+        <v>0.1733048673623031</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.192975800804097</v>
+        <v>0.1908083842976037</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1345617241240115</v>
+        <v>0.1373234877884823</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3383058306315103</v>
+        <v>0.3420001725421276</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.09478175255550612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.261915671880317</v>
+        <v>0.2619156718803169</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1408120803505523</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1245506472298915</v>
+        <v>0.1238940963977828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08295341352509913</v>
+        <v>0.08221690232171086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07294094883435058</v>
+        <v>0.07323585682568598</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.227154281280492</v>
+        <v>0.2289446108265749</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1141519683452371</v>
+        <v>0.1171485128313353</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1735987634046607</v>
+        <v>0.1721287867687701</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1365322846984063</v>
+        <v>0.1386519276642913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4048654770509732</v>
+        <v>0.4023043784593898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1266085523718796</v>
+        <v>0.1268206815183887</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1373869444230065</v>
+        <v>0.1356251100674809</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1113864042584516</v>
+        <v>0.1120565736047632</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3263529936060826</v>
+        <v>0.3258698120266494</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1802164443950013</v>
+        <v>0.1826618925828093</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1347170154583185</v>
+        <v>0.1303454029379348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1215891735480173</v>
+        <v>0.1211448352159481</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2992368678251062</v>
+        <v>0.3018146827633165</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1699234347575252</v>
+        <v>0.1674931368287161</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2382975233106411</v>
+        <v>0.2339079199401227</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1936144594476495</v>
+        <v>0.200709145367234</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4732728177280072</v>
+        <v>0.470763025654403</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1652304225648866</v>
+        <v>0.167165914676217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1786820555395625</v>
+        <v>0.1769069162719566</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1495233772903916</v>
+        <v>0.1508583223431665</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3763647070342577</v>
+        <v>0.3775214972041297</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1256075601719978</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2811181202866848</v>
+        <v>0.2811181202866849</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2239573625972027</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1797377902549507</v>
+        <v>0.1760553151187012</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06353887668466143</v>
+        <v>0.06338682589751342</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06633934675694478</v>
+        <v>0.06487215840766619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1528754919470873</v>
+        <v>0.1491954474518247</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2081907696719237</v>
+        <v>0.2078630966426318</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1272279952043227</v>
+        <v>0.127979049377051</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1013990294231778</v>
+        <v>0.1024228354700832</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2562218997135681</v>
+        <v>0.2576277751722856</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2026114193015921</v>
+        <v>0.2026327319634289</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1022640044587445</v>
+        <v>0.1007109349989036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09172385014129461</v>
+        <v>0.09046901296155914</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2104524456313226</v>
+        <v>0.2101301012339579</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2402861175568828</v>
+        <v>0.2379084575855329</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1036584953054976</v>
+        <v>0.1035958203861451</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1069589113548616</v>
+        <v>0.1068588668583382</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2054750233799943</v>
+        <v>0.2013250678570573</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2716731044035542</v>
+        <v>0.2710051057823122</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1796973965285657</v>
+        <v>0.1805846559381503</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1527081890481435</v>
+        <v>0.153796273392472</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3068552400758155</v>
+        <v>0.3089151708648559</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2461159976777518</v>
+        <v>0.2455597798803626</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1347705623457076</v>
+        <v>0.1352793326081318</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1229587827000416</v>
+        <v>0.1240672684522389</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2504020992889077</v>
+        <v>0.248725075865735</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.1390138869810334</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3060317936661508</v>
+        <v>0.3060317936661509</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1773607483701837</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0807917652590808</v>
+        <v>0.08057147521106037</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07234534503102853</v>
+        <v>0.07147386150837934</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1727151730914362</v>
+        <v>0.1734037009393283</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1689659605699271</v>
+        <v>0.1701255694608248</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1280404166860951</v>
+        <v>0.1271055238490895</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2916518991047409</v>
+        <v>0.2937358455596036</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1280945850931611</v>
+        <v>0.1284465322192595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1033774125033427</v>
+        <v>0.1031841270932156</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2371804467427434</v>
+        <v>0.238183882976242</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09989017190238039</v>
+        <v>0.1002953473902994</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09184800556334456</v>
+        <v>0.09129643426613057</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.19925979089235</v>
+        <v>0.1994148116023773</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1956526500634283</v>
+        <v>0.1949662812637053</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1521388044899166</v>
+        <v>0.1519947269217912</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3177675983608105</v>
+        <v>0.3189213233382468</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1449653714807951</v>
+        <v>0.1455793343935314</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.118968511710014</v>
+        <v>0.1186218275903254</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2572324275934349</v>
+        <v>0.2574322023582393</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23162</v>
+        <v>22772</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10465</v>
+        <v>10474</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19537</v>
+        <v>19105</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23893</v>
+        <v>24620</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25623</v>
+        <v>26513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49418</v>
+        <v>47246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43518</v>
+        <v>43674</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>28822</v>
+        <v>28937</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53906</v>
+        <v>54923</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>64867</v>
+        <v>63583</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>69395</v>
+        <v>67761</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>57649</v>
+        <v>57409</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44569</v>
+        <v>43426</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27286</v>
+        <v>27149</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40135</v>
+        <v>41558</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43408</v>
+        <v>45573</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48775</v>
+        <v>49488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>79576</v>
+        <v>78912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71386</v>
+        <v>70361</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46004</v>
+        <v>45517</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>85768</v>
+        <v>84920</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>101360</v>
+        <v>98511</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>104665</v>
+        <v>104551</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82721</v>
+        <v>83389</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>86184</v>
+        <v>88474</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19475</v>
+        <v>19050</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15412</v>
+        <v>15070</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>63423</v>
+        <v>62633</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>147180</v>
+        <v>146093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50437</v>
+        <v>50609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25563</v>
+        <v>25909</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>143617</v>
+        <v>143424</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>247804</v>
+        <v>246801</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75234</v>
+        <v>75583</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45520</v>
+        <v>44519</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>215031</v>
+        <v>217158</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>124390</v>
+        <v>125848</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43000</v>
+        <v>42031</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33961</v>
+        <v>33269</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>102272</v>
+        <v>101753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>187540</v>
+        <v>186918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82119</v>
+        <v>82002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>48593</v>
+        <v>49656</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>182052</v>
+        <v>178556</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>304981</v>
+        <v>303212</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115108</v>
+        <v>113939</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>76637</v>
+        <v>74917</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>271443</v>
+        <v>271094</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18430</v>
+        <v>18394</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17049</v>
+        <v>15081</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15929</v>
+        <v>16489</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48887</v>
+        <v>50177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36421</v>
+        <v>35975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>38267</v>
+        <v>38306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37518</v>
+        <v>37548</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89226</v>
+        <v>89542</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58818</v>
+        <v>59425</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>61080</v>
+        <v>58854</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>59493</v>
+        <v>59043</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>142954</v>
+        <v>145886</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38957</v>
+        <v>37059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36525</v>
+        <v>34384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34661</v>
+        <v>34684</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73534</v>
+        <v>74675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61814</v>
+        <v>60754</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65538</v>
+        <v>67338</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65213</v>
+        <v>65523</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115313</v>
+        <v>116771</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>90970</v>
+        <v>91756</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93890</v>
+        <v>92727</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>92504</v>
+        <v>90528</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>180920</v>
+        <v>181961</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55234</v>
+        <v>55078</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25746</v>
+        <v>25403</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19715</v>
+        <v>20818</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37698</v>
+        <v>38090</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>38220</v>
+        <v>37917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>66251</v>
+        <v>66300</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>55940</v>
+        <v>55899</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>109181</v>
+        <v>109199</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101448</v>
+        <v>101258</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>100499</v>
+        <v>99054</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>83085</v>
+        <v>82309</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>156154</v>
+        <v>154870</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85536</v>
+        <v>84849</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50443</v>
+        <v>49823</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41553</v>
+        <v>41586</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67040</v>
+        <v>68423</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63926</v>
+        <v>64435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99779</v>
+        <v>98317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>88240</v>
+        <v>89792</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>142754</v>
+        <v>145152</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>138970</v>
+        <v>140724</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>139951</v>
+        <v>139067</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>120990</v>
+        <v>120776</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>201032</v>
+        <v>199580</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5978</v>
+        <v>6273</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20697</v>
+        <v>22021</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12002</v>
+        <v>12897</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22724</v>
+        <v>23420</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19815</v>
+        <v>19875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>56819</v>
+        <v>56150</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21924</v>
+        <v>21269</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>42514</v>
+        <v>42842</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28357</v>
+        <v>30011</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>85153</v>
+        <v>84196</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>37900</v>
+        <v>37969</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>70436</v>
+        <v>70240</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19394</v>
+        <v>19474</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42575</v>
+        <v>44199</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28944</v>
+        <v>29852</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39359</v>
+        <v>40124</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40161</v>
+        <v>40338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>83647</v>
+        <v>84100</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42255</v>
+        <v>42159</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>58990</v>
+        <v>59199</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>53816</v>
+        <v>54401</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120593</v>
+        <v>120299</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>64199</v>
+        <v>65014</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>94427</v>
+        <v>93709</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25834</v>
+        <v>25593</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26020</v>
+        <v>26205</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16131</v>
+        <v>16028</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>56672</v>
+        <v>57177</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>30981</v>
+        <v>30953</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>37388</v>
+        <v>36227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>21314</v>
+        <v>21340</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>83654</v>
+        <v>83932</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>63817</v>
+        <v>63249</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>70525</v>
+        <v>69174</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>42452</v>
+        <v>42923</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>146476</v>
+        <v>148467</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46568</v>
+        <v>47179</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50054</v>
+        <v>50776</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>35788</v>
+        <v>34630</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>81686</v>
+        <v>82362</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>54726</v>
+        <v>54006</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>62564</v>
+        <v>63019</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>42510</v>
+        <v>44595</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>108011</v>
+        <v>107912</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>95535</v>
+        <v>95137</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>106538</v>
+        <v>105341</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>72157</v>
+        <v>73638</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>180590</v>
+        <v>182562</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76602</v>
+        <v>76198</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>54981</v>
+        <v>54492</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>47890</v>
+        <v>48084</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>162461</v>
+        <v>163742</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>72854</v>
+        <v>74766</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>120452</v>
+        <v>119432</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>94384</v>
+        <v>95849</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>312023</v>
+        <v>310049</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>158672</v>
+        <v>158938</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>186385</v>
+        <v>183995</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>150132</v>
+        <v>151036</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>484923</v>
+        <v>484205</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>110838</v>
+        <v>112342</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>89289</v>
+        <v>86391</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>79830</v>
+        <v>79539</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>214015</v>
+        <v>215858</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>108448</v>
+        <v>106897</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>165343</v>
+        <v>162298</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>133845</v>
+        <v>138749</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>364743</v>
+        <v>362809</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>207074</v>
+        <v>209500</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>242407</v>
+        <v>239999</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>201535</v>
+        <v>203335</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>559235</v>
+        <v>560954</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>133688</v>
+        <v>130949</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>49503</v>
+        <v>49385</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>51651</v>
+        <v>50508</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>122006</v>
+        <v>119069</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>163120</v>
+        <v>162863</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>104655</v>
+        <v>105273</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>83773</v>
+        <v>84618</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>212820</v>
+        <v>213988</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>309450</v>
+        <v>309482</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>163794</v>
+        <v>161306</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>147194</v>
+        <v>145180</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>342760</v>
+        <v>342235</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>178724</v>
+        <v>176955</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>80760</v>
+        <v>80711</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83276</v>
+        <v>83198</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>163984</v>
+        <v>160672</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>212859</v>
+        <v>212335</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>147815</v>
+        <v>148545</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>126162</v>
+        <v>127061</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>254877</v>
+        <v>256588</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>375894</v>
+        <v>375045</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>215859</v>
+        <v>216674</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>197318</v>
+        <v>199097</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>407825</v>
+        <v>405094</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>276856</v>
+        <v>276101</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>245565</v>
+        <v>242607</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>609062</v>
+        <v>611490</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>600691</v>
+        <v>604813</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>453845</v>
+        <v>450531</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1088278</v>
+        <v>1096054</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>894341</v>
+        <v>896798</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>717325</v>
+        <v>715984</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1721414</v>
+        <v>1728697</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>342302</v>
+        <v>343690</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>311764</v>
+        <v>309892</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>702669</v>
+        <v>703216</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>695564</v>
+        <v>693124</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>539262</v>
+        <v>538752</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1185727</v>
+        <v>1190032</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1012130</v>
+        <v>1016417</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>825510</v>
+        <v>823104</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1866948</v>
+        <v>1868398</v>
       </c>
     </row>
     <row r="40">
